--- a/excel_files/cdr.xlsx
+++ b/excel_files/cdr.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +586,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CDR2003</t>
+          <t>CDR9999</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Property Type</t>
+          <t>Fake Field</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mortgage:Mortgage:Property Type</t>
+          <t>Mortgage:Mortgage:Fake Field</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>This field captures the property type related to the mortgage context.</t>
+          <t>This is a fabricated row for testing.</t>
         </is>
       </c>
     </row>
@@ -8360,7 +8360,6 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr">
         <is>
           <t>Customer</t>
